--- a/lucas/Lucas Passione_Complete_Infloww.xlsx
+++ b/lucas/Lucas Passione_Complete_Infloww.xlsx
@@ -39,7 +39,7 @@
     <sheet name="customno2" sheetId="30" state="visible" r:id="rId30"/>
     <sheet name="done1" sheetId="31" state="visible" r:id="rId31"/>
     <sheet name="done2" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="cumcontrol1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="cumcontrol" sheetId="33" state="visible" r:id="rId33"/>
     <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
     <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>alright I'll save it for someone who actually wants it then</t>
+          <t>no problem, I'll save it for someone who really wants it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>fine... [lower price] but ONLY because I like you, one time thing</t>
+          <t>[lower price] because you've been making me feel a type of way, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the guys who appreciate what I do don't ask for discounts, just saying</t>
+          <t>the ones who really want it don't ask for discounts, just saying</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount? do I look like I'm on sale? 😏</t>
+          <t>a discount? do I look like I'm on sale?</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's cool, I'm not going anywhere... let's just keep talking, I like this</t>
+          <t>I'll keep it then, but it's got your name on it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I literally just recorded this because of what YOU said to me, this wasn't just random content man</t>
+          <t>I made this because of what YOU said to me, this wasn't random, I did it for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? nah I don't just give this to anyone... you gotta earn the good stuff</t>
+          <t>free? I don't just hand this out, you have to earn the best stuff</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already sent you one for free remember? and this one is way crazier... you have no idea</t>
+          <t>I already gave you one for free remember? this one is way crazier, you know I don't do free twice</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no pressure at all, I'm just enjoying talking to you honestly</t>
+          <t>okay I'll hold onto it for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I did this because of you... like specifically because of our convo, that took effort and I did it for YOU</t>
+          <t>I recorded this because of our conversation, specifically because of you, and it took time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1476,7 +1476,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? you think the best things in life are free? not this one 😏</t>
+          <t>the best things aren't free babe, especially not what I just recorded</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>you already got a free one, this one is on another level trust me</t>
+          <t>you already got the free preview, this one is ten times better</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>honestly it's fine, I like talking to you money or not... you do something to me</t>
+          <t>it's fine, you're here and that's what counts right now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you can man... even a tiny amount, I just need you to see what you made me do</t>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even like [small amount]? I really want you to see this one</t>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>hey I totally get it, no pressure at all okay?</t>
+          <t>I hear you, that's okay</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's totally cool, you being here is what matters</t>
+          <t>you being here is enough for now</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, even $1... I can't keep this from you</t>
+          <t>send whatever feels right, I can't keep this from you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? I really don't want you to miss this</t>
+          <t>what about just [small amount]? would hate for you to miss this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>that's fine, seriously don't worry about it</t>
+          <t>don't stress about it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>just send whatever you want, even $1, I can't keep this to myself... you need to see it</t>
+          <t>send whatever you want, literally anything, you need to see this</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>look this isn't about money... I just need you to see what you're doing to me rn, I don't react like this to people</t>
+          <t>forget about money, this isn't about that, I need you to see what you're doing to me rn because I've never reacted like this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>that's totally fine I'm not trying to sell you anything, I just like talking to you</t>
+          <t>that's fine, I'm just enjoying this</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1898,7 +1898,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>send me anything, even the smallest amount, I need you to see what you did to me</t>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>forget about money for a sec... I just want to share this with you, what you're making me feel is real</t>
+          <t>forget the money part, I want to share this with you because what you're making me feel is real</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>no worries at all, I don't care about that I'm just enjoying this</t>
+          <t>no worries, I don't care about that, this convo is what I care about</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>figure it out soon man, I'm in this mood rn and I don't know how long it's gonna last</t>
+          <t>figure it out soon because this mood isn't gonna last and I want you to have it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2017,7 +2017,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>try a different card? I really don't want you to miss this</t>
+          <t>maybe try a different card? you really don't want to miss this</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>ahh that sucks, happens sometimes though try again it usually works the second time</t>
+          <t>ugh that's annoying, try again it usually works the second time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I want you to see this before I change my mind, I don't keep stuff like this around forever</t>
+          <t>fix it quick, I don't keep stuff like this around forever</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>do you have another card you can try? I really want you to see this</t>
+          <t>you have another card? because you don't want to miss what I made for you</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>damn that's annoying, it happens a lot just try one more time</t>
+          <t>that happens sometimes, try one more time</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>alright I'll chill... for now, no promises though haha</t>
+          <t>alright I'll behave, for now, no promises</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2219,7 +2219,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>look I can't help it, there's something about you that's messing with my head rn</t>
+          <t>I can't help it though, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>so tell me more about you... what do you do when you're not making guys on the internet lose their minds? 😏</t>
+          <t>so tell me more about you, what do you do when you're not driving guys on the internet crazy?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>haha alright alright I got a little carried away, you're just too easy to talk to</t>
+          <t>haha okay I got carried away, you're too easy to talk to</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>fine I'll stop but don't blame me if it happens again later 😏</t>
+          <t>fine I'll stop, don't blame me when it happens again though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I'm trying to behave but you're making it really hard man, there's something about you</t>
+          <t>I'm trying so hard to behave but you make it impossible honestly</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>okay new topic, but first... what's the craziest thing you've ever done?</t>
+          <t>okay new topic, what's the craziest thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>my bad I got ahead of myself haha, it's your fault for being so fun to talk to</t>
+          <t>my bad I got ahead of myself, your fault for being this fun</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2615,7 +2615,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay wait no I remember now, so like I was saying...</t>
+          <t>okay wait I remember, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2633,7 +2633,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but hold on you totally distracted me, I was about to tell you something and now I lost my train of thought...</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha wait that's actually funny</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2734,7 +2734,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait no stop you're distracting me from what I was gonna say...</t>
+          <t>wait no stop, you're distracting me from what I was gonna tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2752,7 +2752,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol okay that's random but I like it</t>
+          <t>okay that's random but I'm here for it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get it there's a lot of fake stuff on here, but you felt something in this convo right? because I did... and that's real</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me, didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about me my life whatever. I'm an open book</t>
+          <t>ask me anything, literally anything about me or my life, I'll prove it, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol do I sound like a bot to you? beep boop... send $5 for human verification haha I'm kidding</t>
+          <t>lol a robot? do robots make you feel like this? didn't think so</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots on here but what we've been talking about... that felt real to me. didn't it feel real to you?</t>
+          <t>I know there's a lot of bots on here but what we've been talking about felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me, ask me something only a real person would know. go ahead</t>
+          <t>test me then, ask me something only a real person would know</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that's actually the funniest thing anyone's said to me today 😏</t>
+          <t>wait you think I'm fake?? that's the funniest thing I've heard all day</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3019,12 +3019,12 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call... you'll see</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. Note: Lucas CAN do VCs — confirm with TL before closing.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3037,7 +3037,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something wayyy better for you though, trust me you'll forget you even asked</t>
+          <t>I have something way better for you, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3055,7 +3055,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe one day if you earn it but not yet... I'm private about that stuff</t>
+          <t>haha maybe if you earn it, not yet though</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do on here but what I have for you is wayyy better than my voice, trust me</t>
+          <t>that's not something I do here but trust me what I have is way better</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>hmmm maybe but you gotta earn that first haha</t>
+          <t>you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3221,7 +3221,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, I made this one special</t>
+          <t>trust me you won't regret it, this one is special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3239,12 +3239,12 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you're thinking of, you're gonna lose it... [price]</t>
+          <t>I have exactly what you need and you're gonna lose your mind, [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. $100/min, min 2 min. +$100 if anal.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you want that? I might have something... actually I definitely have something 😏</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3322,7 +3322,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching this one</t>
+          <t>you're not gonna be able to stop watching</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3340,7 +3340,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I actually did something just like that, [price] and it's worth every cent</t>
+          <t>I have it, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>oh you have good taste... I think I have exactly what you're looking for</t>
+          <t>ohhh good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me... I know what you need better than you do 😏</t>
+          <t>trust me, I know what you need better than you do</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>actually what I have might be even crazier and literally no one else has seen it yet</t>
+          <t>what I have might be even crazier and nobody else has seen it</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3459,7 +3459,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but honestly I have something that'll make you forget you even asked</t>
+          <t>I don't have exactly that but I have something that'll make you forget you asked</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this one, you'll thank me later</t>
+          <t>just trust me on this, you'll thank me after</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I DO have is something no one has ever seen and I think it's even better than what you asked for</t>
+          <t>nobody has seen what I'm about to show you and it's better than what you asked for</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have that specific thing but I have something you're gonna like even more</t>
+          <t>not exactly that but what I DO have is gonna hit even harder</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
@@ -3767,7 +3767,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>okay but next time you have to wait for me, I have something insane planned for round 2</t>
+          <t>next time you have to wait for me, I have something insane planned for round 2</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3785,7 +3785,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet, don't you wanna watch me cum too?</t>
+          <t>but I haven't finished yet, you're really gonna leave me like this?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you HAVE to hold it because what I have planned for us next time is way crazier</t>
+          <t>next time you hold it because what I have planned is way crazier</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait but I'm not done yet, you're gonna leave me like this?</t>
+          <t>wait I'm not done yet, you're just gonna leave me hanging?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>don't you dare finish before you see this, trust me you want to wait</t>
+          <t>don't you dare finish before you see this</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>hold it... I want you to wait until you see what I'm about to send, trust me it's worth it</t>
+          <t>hold it, wait until you see what I'm about to send, trust me it's worth it</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>wait for me, I want us to finish together... open this first</t>
+          <t>wait for me, I want us to finish together, open this first</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I'm so close too, cum with me... but you need to see this first</t>
+          <t>I'm close too, cum with me, but you need to see this first</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>hold it, not yet... I need you to last a little longer for me</t>
+          <t>hold it, not yet, I need you to last longer for me</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>don't cum yet... I'm not done with you</t>
+          <t>don't cum yet, I'm not done with you</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4124,7 +4124,7 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>okay you just made me do something... give me a sec</t>
+          <t>okay you just made me do something, give me a sec</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
@@ -4142,12 +4142,12 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>you can't just send me that and expect me not to do something about it, hold on...</t>
+          <t>you can't send me that and expect me to do nothing about it, hold on</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
         <is>
-          <t>LEVERAGE → WAIT 1-2 min then send PPV.</t>
+          <t>LEVERAGE. WAIT 1-2 min then send PPV.</t>
         </is>
       </c>
       <c r="D3" s="13" t="inlineStr"/>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="B4" s="13" t="inlineStr">
         <is>
-          <t>woah I wasn't expecting that but... damn 🥵</t>
+          <t>woah wasn't expecting that but... damn</t>
         </is>
       </c>
       <c r="C4" s="13" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>damn you don't waste time huh, that's actually really hot though ngl</t>
+          <t>omg you don't waste time huh, that's actually really hot ngl</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="B6" s="13" t="inlineStr">
         <is>
-          <t>oh fuck that is... damn. I need to show you something rn</t>
+          <t>damn that is... I need to show you something rn</t>
         </is>
       </c>
       <c r="C6" s="13" t="inlineStr">
@@ -4214,7 +4214,7 @@
       </c>
       <c r="B7" s="13" t="inlineStr">
         <is>
-          <t>fuck okay that's... damn. you have no idea what that just did to me</t>
+          <t>fuck okay that's... wow, you have no idea what that just did to me</t>
         </is>
       </c>
       <c r="C7" s="13" t="inlineStr">
@@ -4279,12 +4279,12 @@
       </c>
       <c r="B2" s="13" t="inlineStr">
         <is>
-          <t>I should be meditating rn but I can't move 😏</t>
+          <t>I can't focus on anything else rn</t>
         </is>
       </c>
       <c r="C2" s="13" t="inlineStr">
         <is>
-          <t>BOOSTER. Lucas personality — discipline/wellness.</t>
+          <t>BOOSTER.</t>
         </is>
       </c>
       <c r="D2" s="13" t="inlineStr"/>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B3" s="13" t="inlineStr">
         <is>
-          <t>more...</t>
+          <t>more</t>
         </is>
       </c>
       <c r="C3" s="13" t="inlineStr">
@@ -4333,7 +4333,7 @@
       </c>
       <c r="B5" s="13" t="inlineStr">
         <is>
-          <t>I literally can't think straight rn</t>
+          <t>I can't think straight rn</t>
         </is>
       </c>
       <c r="C5" s="13" t="inlineStr">
@@ -4900,12 +4900,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's cool man, let's just keep talking... I'm still thinking about you anyway</t>
+          <t>I'll hold onto it then, but next time I'm feeling like this you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>SEED. Continue.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>alright look, [lower price] just for you because this convo has been different</t>
+          <t>alright [lower price] but only because this convo has been different, don't tell anyone</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I'm only feeling like this because of you right now, no idea when that's gonna happen again</t>
+          <t>I'm only in this mood because of you rn, no guarantee it happens again</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>bro that's less than a protein shake and I promise this hits harder 😏</t>
+          <t>that's less than your morning coffee and trust me this hits way harder</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no stress, I like talking to you regardless</t>
+          <t>I'll keep it for now, but I know you'll come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>you know what... [lower price] because you've been making me feel some type of way, keep that between us</t>
+          <t>[lower price] because I actually want you to have this one, I'm not making this offer to anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>honestly most guys can't handle what I just recorded, thought you were different</t>
+          <t>I don't think you're ready for this one honestly, it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>this mood? it's not gonna last forever and I want you to be the one who sees it</t>
+          <t>this doesn't happen often and I already chose you to share it with, don't make me regret it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B6" s="11" t="inlineStr">
         <is>
-          <t>that's like what you'd spend on lunch, except this is gonna keep you up all night</t>
+          <t>it's literally nothing for what you're about to see, you'll be replaying this one</t>
         </is>
       </c>
       <c r="C6" s="11" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>if you don't want it that's cool, I'll keep it for myself... or maybe someone else has been asking 😏</t>
+          <t>okay I'll keep it then, someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>alright... [lower price] just for you but don't tell anyone, this stays between us</t>
+          <t>fine [lower price] ONLY because I like you, but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>I don't do discounts... I only share this with guys who actually appreciate what they're getting</t>
+          <t>the girls who get my best stuff never ask for discounts, they know what it's worth</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>haha you trying to negotiate? this isn't a negotiation man, it's worth every cent</t>
+          <t>haha negotiate? this isn't a sale babe, you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">

--- a/lucas/Lucas Passione_Complete_Infloww.xlsx
+++ b/lucas/Lucas Passione_Complete_Infloww.xlsx
@@ -1197,7 +1197,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1233,7 +1233,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1251,7 +1251,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1316,7 +1316,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free1 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1334,7 +1334,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free1 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1352,7 +1352,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1370,7 +1370,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free1 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1435,7 +1435,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Seed</t>
+          <t>free2 Step4 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1453,7 +1453,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Guilt</t>
+          <t>free2 Step3 Guilt</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>free2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1489,7 +1489,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reminder</t>
+          <t>free2 Step1 Reminder</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1554,7 +1554,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney1 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1572,7 +1572,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney1 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1608,7 +1608,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney1 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Protect</t>
+          <t>nomoney2 Step4 Protect</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1691,7 +1691,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>nomoney2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1709,7 +1709,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Test</t>
+          <t>nomoney2 Step2 Test</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1727,7 +1727,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Empathy</t>
+          <t>nomoney2 Step1 Empathy</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -1792,7 +1792,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv1 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1810,7 +1810,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv1 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1828,7 +1828,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv1 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1893,7 +1893,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 PWYW</t>
+          <t>noppv2 Step3 PWYW</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -1911,7 +1911,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 Reframe</t>
+          <t>noppv2 Step2 Reframe</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -1929,7 +1929,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Accept</t>
+          <t>noppv2 Step1 Accept</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -1994,7 +1994,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card1 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -2012,7 +2012,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card1 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2030,7 +2030,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card1 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2095,7 +2095,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step3 Urgency</t>
+          <t>card2 Step3 Urgency</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -2113,7 +2113,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step2 AltCard</t>
+          <t>card2 Step2 AltCard</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -2131,7 +2131,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step1 Retry</t>
+          <t>card2 Step1 Retry</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2214,7 +2214,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2250,7 +2250,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex1 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2491,7 +2491,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step4 Accept</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2509,7 +2509,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step3 ReAttempt</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2527,7 +2527,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step2 Subtle</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2545,7 +2545,7 @@
     <row r="5">
       <c r="A5" s="12" t="inlineStr">
         <is>
-          <t>Step1 Respect</t>
+          <t>nosex2 Step1 Respect</t>
         </is>
       </c>
       <c r="B5" s="12" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2628,7 +2628,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2646,7 +2646,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2711,7 +2711,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Retake</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2729,7 +2729,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2747,7 +2747,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Acknowledge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2812,7 +2812,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2830,7 +2830,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2848,7 +2848,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -2913,7 +2913,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Grounding</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -2931,7 +2931,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -2949,7 +2949,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Humor</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3014,7 +3014,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3032,7 +3032,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3050,7 +3050,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3115,7 +3115,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Firm</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3133,7 +3133,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Redirect</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3151,7 +3151,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Dodge</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3216,7 +3216,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3234,7 +3234,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3252,7 +3252,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3317,7 +3317,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3335,7 +3335,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Price</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3353,7 +3353,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Tease</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3418,7 +3418,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3436,7 +3436,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno1 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno1 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3661,7 +3661,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Close</t>
+          <t>customno2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3679,7 +3679,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Alternative</t>
+          <t>customno2 Step2 Alternative</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3697,7 +3697,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Redirect</t>
+          <t>customno2 Step1 Redirect</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3762,7 +3762,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done1 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3780,7 +3780,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done1 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3798,7 +3798,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done1 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3863,7 +3863,7 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>Step3 Seed</t>
+          <t>done2 Step3 Seed</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
@@ -3881,7 +3881,7 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>Step2 Rescue</t>
+          <t>done2 Step2 Rescue</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
@@ -3899,7 +3899,7 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>Step1 Validate</t>
+          <t>done2 Step1 Validate</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>delay2</t>
+          <t>cumcontrol delay2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -3982,7 +3982,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>delay1</t>
+          <t>cumcontrol delay1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4000,7 +4000,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>sync2</t>
+          <t>cumcontrol sync2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4018,7 +4018,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>sync1</t>
+          <t>cumcontrol sync1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4036,7 +4036,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>edge2</t>
+          <t>cumcontrol edge2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4054,7 +4054,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>edge1</t>
+          <t>cumcontrol edge1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4119,7 +4119,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>dpppv2</t>
+          <t>dickpic dpppv2</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4137,7 +4137,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>dpppv1</t>
+          <t>dickpic dpppv1</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4155,7 +4155,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>dprapport2</t>
+          <t>dickpic dprapport2</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4173,7 +4173,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>dprapport1</t>
+          <t>dickpic dprapport1</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4191,7 +4191,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>dpsext2</t>
+          <t>dickpic dpsext2</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4209,7 +4209,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>dpsext1</t>
+          <t>dickpic dpsext1</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4274,7 +4274,7 @@
     <row r="2">
       <c r="A2" s="13" t="inlineStr">
         <is>
-          <t>h8</t>
+          <t>boosters h8</t>
         </is>
       </c>
       <c r="B2" s="13" t="inlineStr">
@@ -4292,7 +4292,7 @@
     <row r="3">
       <c r="A3" s="13" t="inlineStr">
         <is>
-          <t>h7</t>
+          <t>boosters h7</t>
         </is>
       </c>
       <c r="B3" s="13" t="inlineStr">
@@ -4310,7 +4310,7 @@
     <row r="4">
       <c r="A4" s="13" t="inlineStr">
         <is>
-          <t>h6</t>
+          <t>boosters h6</t>
         </is>
       </c>
       <c r="B4" s="13" t="inlineStr">
@@ -4328,7 +4328,7 @@
     <row r="5">
       <c r="A5" s="13" t="inlineStr">
         <is>
-          <t>h5</t>
+          <t>boosters h5</t>
         </is>
       </c>
       <c r="B5" s="13" t="inlineStr">
@@ -4346,7 +4346,7 @@
     <row r="6">
       <c r="A6" s="13" t="inlineStr">
         <is>
-          <t>h4</t>
+          <t>boosters h4</t>
         </is>
       </c>
       <c r="B6" s="13" t="inlineStr">
@@ -4364,7 +4364,7 @@
     <row r="7">
       <c r="A7" s="13" t="inlineStr">
         <is>
-          <t>h3</t>
+          <t>boosters h3</t>
         </is>
       </c>
       <c r="B7" s="13" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="8">
       <c r="A8" s="13" t="inlineStr">
         <is>
-          <t>h2</t>
+          <t>boosters h2</t>
         </is>
       </c>
       <c r="B8" s="13" t="inlineStr">
@@ -4400,7 +4400,7 @@
     <row r="9">
       <c r="A9" s="13" t="inlineStr">
         <is>
-          <t>h1</t>
+          <t>boosters h1</t>
         </is>
       </c>
       <c r="B9" s="13" t="inlineStr">
@@ -4895,7 +4895,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -4913,7 +4913,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -4931,7 +4931,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -4949,7 +4949,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -4967,7 +4967,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price1 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -5032,7 +5032,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step5 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5050,7 +5050,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step4 Downgrade</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5068,7 +5068,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step3 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5086,7 +5086,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step2 FOMO</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="6">
       <c r="A6" s="11" t="inlineStr">
         <is>
-          <t>Step1 Reframe</t>
+          <t>price2 Step1 Reframe</t>
         </is>
       </c>
       <c r="B6" s="11" t="inlineStr">
@@ -5169,7 +5169,7 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>Step4 Takeaway</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
@@ -5187,7 +5187,7 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>Step3 Concession</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
@@ -5205,7 +5205,7 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>Step2 Challenge</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
@@ -5223,7 +5223,7 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>Step1 Firmness</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">

--- a/lucas/Lucas Passione_Complete_Infloww.xlsx
+++ b/lucas/Lucas Passione_Complete_Infloww.xlsx
@@ -13,35 +13,39 @@
     <sheet name="PersonalLucas Passione" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="PositiveSpin" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="ReEngagement" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="price1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="price2" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="discount1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="discount2" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="free1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="free2" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="nomoney1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="nomoney2" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="noppv1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="noppv2" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="card1" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="card2" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="nosex1" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="nosex2" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="offtopic1" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="offtopic2" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="real1" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="real2" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="voice1" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="voice2" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="customyes1" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="customyes2" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="customno1" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="customno2" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="done1" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="done2" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="cumcontrol" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="dickpic" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="boosters" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="sex2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="sex3" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="sex4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="sex5" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="price1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="price2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="discount1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="discount2" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="free1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="free2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="nomoney1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="nomoney2" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="noppv1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="noppv2" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="card1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="card2" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="nosex1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="nosex2" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="offtopic1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="offtopic2" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="real1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="real2" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="voice1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="voice2" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="customyes1" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="customyes2" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="customno1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="customno2" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="done1" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="done2" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="cumcontrol" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="dickpic" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="boosters" sheetId="39" state="visible" r:id="rId39"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1158,7 +1162,517 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I'm definitely going to sleep tonight hoping I dream about you again... but this was better</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference the scenario. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex5 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>holy shit bro... that was way more intense than the actual dream 💪</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>better than any dream 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm cumming... the dream didn't even come close to how good this feels right now</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm right there bro... imagining being deep inside you and I can't hold back anymore</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>in the dream I came inside you and woke up before I could catch my breath... and right now I'm about to relive that ending</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is what dreaming about you does to my body 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit, fantasy-driven). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I need you to see what this fantasy does to me for real</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>right now I'm stroking myself imagining you on top of me and I'm throbbing bro</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Fantasy meets reality.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>you were riding me and looking into my eyes and I was gripping your hips so hard</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>then you climbed on top of me and I could feel every inch of you 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is how turned on this fantasy makes me 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit, fantasy-matched). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fuck hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you were begging me not to stop and I had no intention of stopping</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>god I'm so hard right now just telling you this... my hand is already moving</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>I went lower and lower and you grabbed my hair and pulled me closer bro</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Stay in scenario.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>in the dream I started kissing down your body and you were moaning my name</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex5 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>this is what you saw next 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (teasing, matching the scenario). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex5 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one sec 💪</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>I picked you up and carried you to the bed and you were already breathing heavy</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex5 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>just thinking about it right now is making me hard... I can feel my body reacting</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to her reply. Pull her in.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex5 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>in the dream I pulled you close and kissed your neck and you grabbed onto me like you'd been waiting all day</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. He sets the scene — she's in HIS fantasy.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex5 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>you open the door and see me like this 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (posed like waiting for her). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex5 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>picture this</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>let me show you how it started... just go with it bro</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>we were in a hotel room together and you were wearing this little dress and looking at me like you wanted me to rip it off</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex5 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>I had the craziest dream about you last night 💪</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1197,17 +1711,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>discount2 Step4 Takeaway</t>
+          <t>price1 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>no problem, I'll save it for someone who really wants it</t>
+          <t>I'll hold onto it then, but next time I'm feeling like this you better be ready</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>TAKEAWAY.</t>
+          <t>SEED. Continue.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1215,17 +1729,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>discount2 Step3 Concession</t>
+          <t>price1 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>[lower price] because you've been making me feel a type of way, first and last time</t>
+          <t>alright [lower price] but only because this convo has been different, don't tell anyone</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
+          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1233,17 +1747,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>discount2 Step2 Challenge</t>
+          <t>price1 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>the ones who really want it don't ask for discounts, just saying</t>
+          <t>maybe you're not ready for what I just did in this one</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1251,33 +1765,51 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>discount2 Step1 Firmness</t>
+          <t>price1 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>a discount? do I look like I'm on sale?</t>
+          <t>I'm only in this mood because of you rn, no guarantee it happens again</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>FIRMNESS. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price1 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>that's less than your morning coffee and trust me this hits way harder</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1316,12 +1848,12 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>free1 Step4 Seed</t>
+          <t>price2 Step5 Seed</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>I'll keep it then, but it's got your name on it</t>
+          <t>I'll keep it for now, but I know you'll come back for it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
@@ -1334,17 +1866,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>free1 Step3 Guilt</t>
+          <t>price2 Step4 Downgrade</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>I made this because of what YOU said to me, this wasn't random, I did it for you</t>
+          <t>[lower price] because I actually want you to have this one, I'm not making this offer to anyone else</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>GUILT. Still no → Step 4.</t>
+          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1352,17 +1884,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>free1 Step2 Challenge</t>
+          <t>price2 Step3 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>free? I don't just hand this out, you have to earn the best stuff</t>
+          <t>I don't think you're ready for this one honestly, it's a lot</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>CHALLENGE. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1370,139 +1902,38 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>free1 Step1 Reminder</t>
+          <t>price2 Step2 FOMO</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I already gave you one for free remember? this one is way crazier, you know I don't do free twice</t>
+          <t>this doesn't happen often and I already chose you to share it with, don't make me regret it</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>REMINDER. Still → Step 2.</t>
+          <t>FOMO. Still no → Step 3.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>free2 Step4 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>okay I'll hold onto it for now</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>free2 Step3 Guilt</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>I recorded this because of our conversation, specifically because of you, and it took time</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>GUILT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>free2 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the best things aren't free babe, especially not what I just recorded</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>free2 Step1 Reminder</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>you already got the free preview, this one is ten times better</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>REMINDER. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+    <row r="6">
+      <c r="A6" s="11" t="inlineStr">
+        <is>
+          <t>price2 Step1 Reframe</t>
+        </is>
+      </c>
+      <c r="B6" s="11" t="inlineStr">
+        <is>
+          <t>it's literally nothing for what you're about to see, you'll be replaying this one</t>
+        </is>
+      </c>
+      <c r="C6" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 2.</t>
+        </is>
+      </c>
+      <c r="D6" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1554,17 +1985,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step4 Protect</t>
+          <t>discount1 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>it's fine, you're here and that's what counts right now</t>
+          <t>okay I'll keep it then, someone else has been asking and they won't hesitate</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1572,17 +2003,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step3 PWYW</t>
+          <t>discount1 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+          <t>fine [lower price] ONLY because I like you, but don't ever ask me this again</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1590,17 +2021,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step2 Test</t>
+          <t>discount1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>not even [small amount]? I really want you to be the one who sees this</t>
+          <t>the girls who get my best stuff never ask for discounts, they know what it's worth</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST $3-5. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1608,17 +2039,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney1 Step1 Empathy</t>
+          <t>discount1 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>I hear you, that's okay</t>
+          <t>haha negotiate? this isn't a sale babe, you know exactly what you're getting</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1673,17 +2104,17 @@
     <row r="2">
       <c r="A2" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step4 Protect</t>
+          <t>discount2 Step4 Takeaway</t>
         </is>
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>you being here is enough for now</t>
+          <t>no problem, I'll save it for someone who really wants it</t>
         </is>
       </c>
       <c r="C2" s="11" t="inlineStr">
         <is>
-          <t>PROTECT.</t>
+          <t>TAKEAWAY.</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr"/>
@@ -1691,17 +2122,17 @@
     <row r="3">
       <c r="A3" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step3 PWYW</t>
+          <t>discount2 Step3 Concession</t>
         </is>
       </c>
       <c r="B3" s="11" t="inlineStr">
         <is>
-          <t>send whatever feels right, I can't keep this from you</t>
+          <t>[lower price] because you've been making me feel a type of way, first and last time</t>
         </is>
       </c>
       <c r="C3" s="11" t="inlineStr">
         <is>
-          <t>PWYW. Still no → Step 4.</t>
+          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="11" t="inlineStr"/>
@@ -1709,17 +2140,17 @@
     <row r="4">
       <c r="A4" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step2 Test</t>
+          <t>discount2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B4" s="11" t="inlineStr">
         <is>
-          <t>what about just [small amount]? would hate for you to miss this one</t>
+          <t>the ones who really want it don't ask for discounts, just saying</t>
         </is>
       </c>
       <c r="C4" s="11" t="inlineStr">
         <is>
-          <t>TEST. Still no → Step 3.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
@@ -1727,17 +2158,17 @@
     <row r="5">
       <c r="A5" s="11" t="inlineStr">
         <is>
-          <t>nomoney2 Step1 Empathy</t>
+          <t>discount2 Step1 Firmness</t>
         </is>
       </c>
       <c r="B5" s="11" t="inlineStr">
         <is>
-          <t>don't stress about it</t>
+          <t>a discount? do I look like I'm on sale?</t>
         </is>
       </c>
       <c r="C5" s="11" t="inlineStr">
         <is>
-          <t>EMPATHY. Still → Step 2.</t>
+          <t>FIRMNESS. Still → Step 2.</t>
         </is>
       </c>
       <c r="D5" s="11" t="inlineStr"/>
@@ -1748,6 +2179,482 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>I'll keep it then, but it's got your name on it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I made this because of what YOU said to me, this wasn't random, I did it for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>free? I don't just hand this out, you have to earn the best stuff</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free1 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I already gave you one for free remember? this one is way crazier, you know I don't do free twice</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step4 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>okay I'll hold onto it for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step3 Guilt</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>I recorded this because of our conversation, specifically because of you, and it took time</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>GUILT. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step2 Challenge</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>the best things aren't free babe, especially not what I just recorded</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>CHALLENGE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>free2 Step1 Reminder</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>you already got the free preview, this one is ten times better</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>REMINDER. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>it's fine, you're here and that's what counts right now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever you can, even something small, I just need you to see what you made me do</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>not even [small amount]? I really want you to be the one who sees this</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST $3-5. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney1 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>I hear you, that's okay</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step4 Protect</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>you being here is enough for now</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PROTECT.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>send whatever feels right, I can't keep this from you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>PWYW. Still no → Step 4.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step2 Test</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>what about just [small amount]? would hate for you to miss this one</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>TEST. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="inlineStr">
+        <is>
+          <t>nomoney2 Step1 Empathy</t>
+        </is>
+      </c>
+      <c r="B5" s="11" t="inlineStr">
+        <is>
+          <t>don't stress about it</t>
+        </is>
+      </c>
+      <c r="C5" s="11" t="inlineStr">
+        <is>
+          <t>EMPATHY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1842,428 +2749,6 @@
         </is>
       </c>
       <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>noppv2 Step3 PWYW</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>send anything, even the smallest amount, you need to see what you did to me</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>PWYW.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>noppv2 Step2 Reframe</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>forget the money part, I want to share this with you because what you're making me feel is real</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>noppv2 Step1 Accept</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>no worries, I don't care about that, this convo is what I care about</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>ACCEPT. Continue sexting 4-5 msgs before Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>figure it out soon because this mood isn't gonna last and I want you to have it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>maybe try a different card? you really don't want to miss this</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card1 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>ugh that's annoying, try again it usually works the second time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step3 Urgency</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>fix it quick, I don't keep stuff like this around forever</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>URGENCY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step2 AltCard</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>you have another card? because you don't want to miss what I made for you</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>ALTERNATIVE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>card2 Step1 Retry</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>that happens sometimes, try one more time</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>RETRY. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="inlineStr">
-        <is>
-          <t>Text</t>
-        </is>
-      </c>
-      <c r="C1" s="10" t="inlineStr">
-        <is>
-          <t>Note</t>
-        </is>
-      </c>
-      <c r="D1" s="10" t="inlineStr">
-        <is>
-          <t>*Guidelines</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>alright I'll behave, for now, no promises</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT. Door open.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I can't help it though, there's something about you that keeps messing with my head</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>so tell me more about you, what do you do when you're not driving guys on the internet crazy?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex1 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>haha okay I got carried away, you're too easy to talk to</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2452,7 +2937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2489,76 +2974,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step4 Accept</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>fine I'll stop, don't blame me when it happens again though</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>ACCEPT.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>noppv2 Step3 PWYW</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>send anything, even the smallest amount, you need to see what you did to me</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>PWYW.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step3 ReAttempt</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>I'm trying so hard to behave but you make it impossible honestly</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>RE-ATTEMPT. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>noppv2 Step2 Reframe</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>forget the money part, I want to share this with you because what you're making me feel is real</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>REFRAME. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step2 Subtle</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay new topic, what's the craziest thing you've ever done?</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>SUBTLE. → Step 3 later.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>nosex2 Step1 Respect</t>
-        </is>
-      </c>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>my bad I got ahead of myself, your fault for being this fun</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>RESPECT. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>noppv2 Step1 Accept</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>no worries, I don't care about that, this convo is what I care about</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>ACCEPT. Continue sexting 4-5 msgs before Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2608,58 +3075,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>okay wait I remember, so like I was saying...</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE. Resume main script.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>figure it out soon because this mood isn't gonna last and I want you to have it</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>but wait you totally distracted me, I was about to say something and now you made me lose my thought</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>maybe try a different card? you really don't want to miss this</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic1 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>haha okay that's actually funny</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card1 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>ugh that's annoying, try again it usually works the second time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2709,58 +3176,58 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step3 Retake</t>
-        </is>
-      </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t>OKAY focus, where was I... oh yeah</t>
-        </is>
-      </c>
-      <c r="C2" s="12" t="inlineStr">
-        <is>
-          <t>RETAKE.</t>
-        </is>
-      </c>
-      <c r="D2" s="12" t="inlineStr"/>
+      <c r="A2" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step3 Urgency</t>
+        </is>
+      </c>
+      <c r="B2" s="11" t="inlineStr">
+        <is>
+          <t>fix it quick, I don't keep stuff like this around forever</t>
+        </is>
+      </c>
+      <c r="C2" s="11" t="inlineStr">
+        <is>
+          <t>URGENCY.</t>
+        </is>
+      </c>
+      <c r="D2" s="11" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step2 Redirect</t>
-        </is>
-      </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>wait no stop, you're distracting me from what I was gonna tell you</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>REDIRECT. → Step 3.</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr"/>
+      <c r="A3" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step2 AltCard</t>
+        </is>
+      </c>
+      <c r="B3" s="11" t="inlineStr">
+        <is>
+          <t>you have another card? because you don't want to miss what I made for you</t>
+        </is>
+      </c>
+      <c r="C3" s="11" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. Still → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="inlineStr">
-        <is>
-          <t>offtopic2 Step1 Acknowledge</t>
-        </is>
-      </c>
-      <c r="B4" s="12" t="inlineStr">
-        <is>
-          <t>okay that's random but I'm here for it</t>
-        </is>
-      </c>
-      <c r="C4" s="12" t="inlineStr">
-        <is>
-          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
-        </is>
-      </c>
-      <c r="D4" s="12" t="inlineStr"/>
+      <c r="A4" s="11" t="inlineStr">
+        <is>
+          <t>card2 Step1 Retry</t>
+        </is>
+      </c>
+      <c r="B4" s="11" t="inlineStr">
+        <is>
+          <t>that happens sometimes, try one more time</t>
+        </is>
+      </c>
+      <c r="C4" s="11" t="inlineStr">
+        <is>
+          <t>RETRY. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2773,7 +3240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2812,17 +3279,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real1 Step3 Grounding</t>
+          <t>nosex1 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me, didn't it feel real to you?</t>
+          <t>alright I'll behave, for now, no promises</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT. Door open.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2830,17 +3297,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real1 Step2 Challenge</t>
+          <t>nosex1 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>ask me anything, literally anything about me or my life, I'll prove it, go ahead</t>
+          <t>I can't help it though, there's something about you that keeps messing with my head</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2848,20 +3315,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real1 Step1 Humor</t>
+          <t>nosex1 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>lol a robot? do robots make you feel like this? didn't think so</t>
+          <t>so tell me more about you, what do you do when you're not driving guys on the internet crazy?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex1 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>haha okay I got carried away, you're too easy to talk to</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2874,7 +3359,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2913,17 +3398,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>real2 Step3 Grounding</t>
+          <t>nosex2 Step4 Accept</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I know there's a lot of bots on here but what we've been talking about felt different, you felt it too right?</t>
+          <t>fine I'll stop, don't blame me when it happens again though</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>GROUNDING.</t>
+          <t>ACCEPT.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -2931,17 +3416,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>real2 Step2 Challenge</t>
+          <t>nosex2 Step3 ReAttempt</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>test me then, ask me something only a real person would know</t>
+          <t>I'm trying so hard to behave but you make it impossible honestly</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>CHALLENGE. Still → Step 3.</t>
+          <t>RE-ATTEMPT. Still no → Step 4.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -2949,20 +3434,38 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>real2 Step1 Humor</t>
+          <t>nosex2 Step2 Subtle</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>wait you think I'm fake?? that's the funniest thing I've heard all day</t>
+          <t>okay new topic, what's the craziest thing you've ever done?</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>HUMOR. Still → Step 2.</t>
+          <t>SUBTLE. → Step 3 later.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="inlineStr">
+        <is>
+          <t>nosex2 Step1 Respect</t>
+        </is>
+      </c>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>my bad I got ahead of myself, your fault for being this fun</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>RESPECT. Still → Step 2.</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3014,17 +3517,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step3 Firm</t>
+          <t>offtopic1 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>I don't do that on here but what I'm about to show you is better than any call</t>
+          <t>okay wait I remember, so like I was saying...</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM. No video calls.</t>
+          <t>RETAKE. Resume main script.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3032,17 +3535,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step2 Redirect</t>
+          <t>offtopic1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have something way better for you, trust me you'll forget you even asked</t>
+          <t>but wait you totally distracted me, I was about to say something and now you made me lose my thought</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3050,17 +3553,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice1 Step1 Dodge</t>
+          <t>offtopic1 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>haha maybe if you earn it, not yet though</t>
+          <t>haha okay that's actually funny</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3115,17 +3618,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step3 Firm</t>
+          <t>offtopic2 Step3 Retake</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>that's not something I do here but trust me what I have is way better</t>
+          <t>OKAY focus, where was I... oh yeah</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>FIRM.</t>
+          <t>RETAKE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3133,17 +3636,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step2 Redirect</t>
+          <t>offtopic2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>how about instead of a call I show you something that'll blow your mind?</t>
+          <t>wait no stop, you're distracting me from what I was gonna tell you</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. Still → Step 3.</t>
+          <t>REDIRECT. → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3151,17 +3654,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>voice2 Step1 Dodge</t>
+          <t>offtopic2 Step1 Acknowledge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>you gotta earn that first</t>
+          <t>okay that's random but I'm here for it</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>DODGE. Still → Step 2.</t>
+          <t>ACKNOWLEDGE. Adapt. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3216,17 +3719,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step3 Close</t>
+          <t>real1 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me you won't regret it, this one is special</t>
+          <t>I get why you'd think that, there's a lot of fake stuff on here, but what we've been talking about felt real to me, didn't it feel real to you?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3234,17 +3737,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step2 Price</t>
+          <t>real1 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have exactly what you need and you're gonna lose your mind, [price]</t>
+          <t>ask me anything, literally anything about me or my life, I'll prove it, go ahead</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE. Set based on content.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3252,17 +3755,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes1 Step1 Tease</t>
+          <t>real1 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>mmm you want that? I might have exactly what you're thinking of</t>
+          <t>lol a robot? do robots make you feel like this? didn't think so</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3317,17 +3820,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step3 Close</t>
+          <t>real2 Step3 Grounding</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>you're not gonna be able to stop watching</t>
+          <t>I know there's a lot of bots on here but what we've been talking about felt different, you felt it too right?</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>GROUNDING.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3335,17 +3838,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step2 Price</t>
+          <t>real2 Step2 Challenge</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>I have it, [price] and it's worth every penny</t>
+          <t>test me then, ask me something only a real person would know</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>PRICE.</t>
+          <t>CHALLENGE. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3353,17 +3856,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customyes2 Step1 Tease</t>
+          <t>real2 Step1 Humor</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>ohhh good taste, I think I know exactly what you need</t>
+          <t>wait you think I'm fake?? that's the funniest thing I've heard all day</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>TEASE. → Step 2.</t>
+          <t>HUMOR. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3418,17 +3921,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step3 Close</t>
+          <t>voice1 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>trust me, I know what you need better than you do</t>
+          <t>I don't do that on here but what I'm about to show you is better than any call</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM. No video calls.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3436,17 +3939,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step2 Alternative</t>
+          <t>voice1 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>what I have might be even crazier and nobody else has seen it</t>
+          <t>I have something way better for you, trust me you'll forget you even asked</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3454,17 +3957,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno1 Step1 Redirect</t>
+          <t>voice1 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>I don't have exactly that but I have something that'll make you forget you asked</t>
+          <t>haha maybe if you earn it, not yet though</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3661,17 +4164,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step3 Close</t>
+          <t>voice2 Step3 Firm</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>just trust me on this, you'll thank me after</t>
+          <t>that's not something I do here but trust me what I have is way better</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>CLOSE.</t>
+          <t>FIRM.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3679,17 +4182,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step2 Alternative</t>
+          <t>voice2 Step2 Redirect</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>nobody has seen what I'm about to show you and it's better than what you asked for</t>
+          <t>how about instead of a call I show you something that'll blow your mind?</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>ALTERNATIVE. → Step 3.</t>
+          <t>REDIRECT. Still → Step 3.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3697,17 +4200,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>customno2 Step1 Redirect</t>
+          <t>voice2 Step1 Dodge</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>not exactly that but what I DO have is gonna hit even harder</t>
+          <t>you gotta earn that first</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>REDIRECT. → Step 2.</t>
+          <t>DODGE. Still → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3762,17 +4265,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done1 Step3 Seed</t>
+          <t>customyes1 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you have to wait for me, I have something insane planned for round 2</t>
+          <t>trust me you won't regret it, this one is special</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3780,17 +4283,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done1 Step2 Rescue</t>
+          <t>customyes1 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>but I haven't finished yet, you're really gonna leave me like this?</t>
+          <t>I have exactly what you need and you're gonna lose your mind, [price]</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE. Set based on content.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3798,17 +4301,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done1 Step1 Validate</t>
+          <t>customyes1 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>fuck that's hot, you came because of me??</t>
+          <t>mmm you want that? I might have exactly what you're thinking of</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3863,17 +4366,17 @@
     <row r="2">
       <c r="A2" s="12" t="inlineStr">
         <is>
-          <t>done2 Step3 Seed</t>
+          <t>customyes2 Step3 Close</t>
         </is>
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t>next time you hold it because what I have planned is way crazier</t>
+          <t>you're not gonna be able to stop watching</t>
         </is>
       </c>
       <c r="C2" s="12" t="inlineStr">
         <is>
-          <t>SEED.</t>
+          <t>CLOSE.</t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr"/>
@@ -3881,17 +4384,17 @@
     <row r="3">
       <c r="A3" s="12" t="inlineStr">
         <is>
-          <t>done2 Step2 Rescue</t>
+          <t>customyes2 Step2 Price</t>
         </is>
       </c>
       <c r="B3" s="12" t="inlineStr">
         <is>
-          <t>wait I'm not done yet, you're just gonna leave me hanging?</t>
+          <t>I have it, [price] and it's worth every penny</t>
         </is>
       </c>
       <c r="C3" s="12" t="inlineStr">
         <is>
-          <t>RESCUE. Still no → Step 3.</t>
+          <t>PRICE.</t>
         </is>
       </c>
       <c r="D3" s="12" t="inlineStr"/>
@@ -3899,17 +4402,17 @@
     <row r="4">
       <c r="A4" s="12" t="inlineStr">
         <is>
-          <t>done2 Step1 Validate</t>
+          <t>customyes2 Step1 Tease</t>
         </is>
       </c>
       <c r="B4" s="12" t="inlineStr">
         <is>
-          <t>already?? damn that's hot</t>
+          <t>ohhh good taste, I think I know exactly what you need</t>
         </is>
       </c>
       <c r="C4" s="12" t="inlineStr">
         <is>
-          <t>VALIDATE. → Step 2.</t>
+          <t>TEASE. → Step 2.</t>
         </is>
       </c>
       <c r="D4" s="12" t="inlineStr"/>
@@ -3920,6 +4423,410 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>trust me, I know what you need better than you do</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>what I have might be even crazier and nobody else has seen it</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE + FOMO. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno1 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>I don't have exactly that but I have something that'll make you forget you asked</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step3 Close</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>just trust me on this, you'll thank me after</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>CLOSE.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step2 Alternative</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>nobody has seen what I'm about to show you and it's better than what you asked for</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>ALTERNATIVE. → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>customno2 Step1 Redirect</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>not exactly that but what I DO have is gonna hit even harder</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>REDIRECT. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you have to wait for me, I have something insane planned for round 2</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>but I haven't finished yet, you're really gonna leave me like this?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done1 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>fuck that's hot, you came because of me??</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="80" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="10" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="10" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" s="10" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="D1" s="10" t="inlineStr">
+        <is>
+          <t>*Guidelines</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step3 Seed</t>
+        </is>
+      </c>
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t>next time you hold it because what I have planned is way crazier</t>
+        </is>
+      </c>
+      <c r="C2" s="12" t="inlineStr">
+        <is>
+          <t>SEED.</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step2 Rescue</t>
+        </is>
+      </c>
+      <c r="B3" s="12" t="inlineStr">
+        <is>
+          <t>wait I'm not done yet, you're just gonna leave me hanging?</t>
+        </is>
+      </c>
+      <c r="C3" s="12" t="inlineStr">
+        <is>
+          <t>RESCUE. Still no → Step 3.</t>
+        </is>
+      </c>
+      <c r="D3" s="12" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="inlineStr">
+        <is>
+          <t>done2 Step1 Validate</t>
+        </is>
+      </c>
+      <c r="B4" s="12" t="inlineStr">
+        <is>
+          <t>already?? damn that's hot</t>
+        </is>
+      </c>
+      <c r="C4" s="12" t="inlineStr">
+        <is>
+          <t>VALIDATE. → Step 2.</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4074,7 +4981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4229,7 +5136,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4856,7 +5763,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4864,123 +5771,500 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll hold onto it then, but next time I'm feeling like this you better be ready</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED. Continue.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>you literally had me doing everything you wanted and I loved every second of it</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Mention something specific she directed. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>alright [lower price] but only because this convo has been different, don't tell anyone</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE 20-30%. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex2 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>holy fuck bro... that was the most intense thing anyone has ever made me do 💪</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>maybe you're not ready for what I just did in this one</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>that's what happens when you take control of me 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, full surrender). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>I'm only in this mood because of you rn, no guarantee it happens again</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price1 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>that's less than your morning coffee and trust me this hits way harder</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh fuck yes... I just came so hard because you told me to, holy shit</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I'm on the edge and I'm not letting go until you give me permission 💪</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm right there bro... tell me to cum, I need to hear you say it</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>this is what your words do to me 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very explicit, her commands made this happen). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>you need to see what you're doing to my body right now</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>I can feel it building and it's because you're telling me exactly how to touch myself</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>She controls him. She's the director.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>nobody has ever had this kind of control over me... you're making me your toy right now</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>fuck bro I'm doing everything you say and I'm about to lose it 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>look what you do to me 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit, following her direction). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>give me a sec</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you want to see how hard you're making me? because it's all for you 💪</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm stroking myself exactly the way you described and it feels insane</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>shit you're making me throb just reading your messages right now</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to her reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay what next? don't stop telling me bro... I love when you take charge</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex2 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>you asked for it 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (following her instructions — teasing, flexing). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex2 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>hold on 💪</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>god the way you tell me what to do is making me hard as fuck</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex2 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>fuck that's hot... you want that? okay I'm doing it right now</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React specifically to her request. She's directing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex2 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>tell me exactly what you want to see bro... I'll do anything you say 💪</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Let HER lead.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex2 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>what do you think? 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (shirtless, suggestive pose). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex2 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>here let me set the mood</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>so tell me... what do you want me to do for you right now? I'm all yours</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I keep replaying last time in my head... something about you drives me crazy</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>React to her reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex2 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey gorgeous 💪 been thinking about you</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4993,7 +6277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5001,123 +6285,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step5 Seed</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>I'll keep it for now, but I know you'll come back for it</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>SEED.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>I don't usually let myself be this vulnerable but you bring it out of me</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference something specific. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step4 Downgrade</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>[lower price] because I actually want you to have this one, I'm not making this offer to anyone else</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>DOWNGRADE. ONE TIME. Still no → Step 5.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex3 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>that was... really different for me 💪 I feel so close to you right now</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step3 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>I don't think you're ready for this one honestly, it's a lot</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>this is for you 💪</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (climax, intimate). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step2 FOMO</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>this doesn't happen often and I already chose you to share it with, don't make me regret it</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FOMO. Still no → Step 3.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="11" t="inlineStr">
-        <is>
-          <t>price2 Step1 Reframe</t>
-        </is>
-      </c>
-      <c r="B6" s="11" t="inlineStr">
-        <is>
-          <t>it's literally nothing for what you're about to see, you'll be replaying this one</t>
-        </is>
-      </c>
-      <c r="C6" s="11" t="inlineStr">
-        <is>
-          <t>REFRAME. Still no → Step 2.</t>
-        </is>
-      </c>
-      <c r="D6" s="11" t="inlineStr"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>oh god I'm cumming bro... fuck that was so intense I'm literally shaking</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>I wish you were here right now so I could look into your eyes when this happens</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>fuck bro I'm about to cum and all I can think about is you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>I've never shared something this personal 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (very intimate, explicit, personal). Bought → continue. Silent 3 min → NR Waves. 'I never do this' — ONE TIME.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>one sec</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I'm getting close and I want you to be part of this with me</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>you're the only person who makes me want to share this side of myself</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Emotional framing. He CHOSE her.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>I'm stroking myself thinking about holding you and I can't believe how intense this feels</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>I've never been this open with someone before 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. NO cooldown.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>this is what thinking about you does to me 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit but emotionally framed). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>I want you to know exactly what you do to me bro... not just physically</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm imagining you here with me right now and my hand is moving on its own</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>every message from you goes straight through me and I can feel myself getting harder just reading your words</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React to her reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>god... feeling this connected while being this turned on is something else bro</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex3 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>I want you to see the real me 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (intimate, personal — natural, vulnerable). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex3 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>one second 💪</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>I'm lying here and my body is responding to you in ways I can't control right now</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex3 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>I don't usually feel this way talking to someone online but with you it's different... I feel it in my chest and lower</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to what she says. Genuine emotion.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex3 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>your reaction just made my heart race for real 💪</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex3 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>just for you 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (personal, natural setting — not posed). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex3 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>let me show you something</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>there's something about you that makes me want to show you the real me, not just the surface</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>I've been thinking about you today and not just like that... like genuinely thinking about you as a person</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply. React warmly.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex3 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>hey bro 💪 can I tell you something real?</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5130,7 +6787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5138,105 +6795,496 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="20" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="80" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Text</t>
         </is>
       </c>
-      <c r="C1" s="10" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>*Guidelines</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step4 Takeaway</t>
-        </is>
-      </c>
-      <c r="B2" s="11" t="inlineStr">
-        <is>
-          <t>okay I'll keep it then, someone else has been asking and they won't hesitate</t>
-        </is>
-      </c>
-      <c r="C2" s="11" t="inlineStr">
-        <is>
-          <t>TAKEAWAY.</t>
-        </is>
-      </c>
-      <c r="D2" s="11" t="inlineStr"/>
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-2</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>nobody's ever gotten to me like that before and I'm definitely challenging you again</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Reference her best message. KEEP TALKING. NEVER say goodbye.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Character limits
+Name: Up to 64 characters
+Tag: Up to 32 characters
+Text: Up to 1000 characters
+Note: Up to 246 characters
+Each sheet serves as a tag. Simply replace the sheet name with your desired tag name, and all scripts added to the sheet will be automatically assigned that tag once imported.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step3 Concession</t>
-        </is>
-      </c>
-      <c r="B3" s="11" t="inlineStr">
-        <is>
-          <t>fine [lower price] ONLY because I like you, but don't ever ask me this again</t>
-        </is>
-      </c>
-      <c r="C3" s="11" t="inlineStr">
-        <is>
-          <t>CONCESSION. ONE TIME. Still no → Step 4.</t>
-        </is>
-      </c>
-      <c r="D3" s="11" t="inlineStr"/>
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>sex4 AC-1</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>okay I'll admit it... you destroyed me at my own game 💪</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step2 Challenge</t>
-        </is>
-      </c>
-      <c r="B4" s="11" t="inlineStr">
-        <is>
-          <t>the girls who get my best stuff never ask for discounts, they know what it's worth</t>
-        </is>
-      </c>
-      <c r="C4" s="11" t="inlineStr">
-        <is>
-          <t>CHALLENGE. Still → Step 3.</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr"/>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-22</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>game over 💪 you won everything</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 4 — $55 (full climax). Bought → Aftercare. Silent → NR Waves.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="inlineStr">
-        <is>
-          <t>discount1 Step1 Firmness</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="inlineStr">
-        <is>
-          <t>haha negotiate? this isn't a sale babe, you know exactly what you're getting</t>
-        </is>
-      </c>
-      <c r="C5" s="11" t="inlineStr">
-        <is>
-          <t>FIRMNESS. Still → Step 2.</t>
-        </is>
-      </c>
-      <c r="D5" s="11" t="inlineStr"/>
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-21</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>hold on</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-20</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>fuck I'm cumming... you completely wrecked me with that game</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-19</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>keep typing bro... I need your words pushing me over the edge</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-18</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>I can't play anymore... I'm about to cum so hard because of you</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-17</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>you win 💪</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 3 — $40 (he admits defeat — very explicit). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-16</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-15</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>I surrender... you need to see what you've done to me</t>
+        </is>
+      </c>
+      <c r="C11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-14</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>I'm leaking and throbbing and it's all because of your words bro</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>He lost — she won.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-13</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>forget the game I can't focus anymore... you've got me so hard I can barely think</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-12</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>new rule: don't stop talking to me while I stroke myself 💪</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply. He's losing the game.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-11</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>level 2 unlocked 💪</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 2 — $25 (more explicit reward). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-10</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>fine take it</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-9</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>you're winning this game and honestly I'm not even mad about it</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-8</t>
+        </is>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>I'm gripping myself right now and it's all because of what you just wrote</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-7</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>fuck bro... that literally made me throb reading it</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>React genuinely to what she said.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-6</t>
+        </is>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>okay round 2... tell me the dirtiest thing you'd do to me if you were here right now</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>sex4 S-5</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>level 1 💪</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 1 — $12 (teasing reward). Bought → continue. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>sex4 S-4</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>you earned this</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 2-3 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-3</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>fine you win this round... I'm getting hard because of what you described and I blame you</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>sex4 S-2</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>mm okay that one actually got to me... I can feel myself reacting to what you just said</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr">
+        <is>
+          <t>React to her reply. Make her work for it.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>sex4 S-1</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>okay not bad... but I've heard better 💪 try harder</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>Wait for reply. Rate her attempt playfully.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>sex4 TB-5</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>think you can handle this? 💪</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>SEND PPV 0 — FREE teaser (confident, challenging pose). Wait for reply. Silent 3 min → NR Waves.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>sex4 TB-4</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>here's a preview of what's at stake</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>WAIT 1-2 MIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-3</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="inlineStr">
+        <is>
+          <t>deal? 💪 don't disappoint me</t>
+        </is>
+      </c>
+      <c r="C28" s="7" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-2</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="inlineStr">
+        <is>
+          <t>let's play a game... you describe your wildest fantasy about me and if you get me hard enough, you get rewarded</t>
+        </is>
+      </c>
+      <c r="C29" s="7" t="inlineStr">
+        <is>
+          <t>Wait for reply.</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>sex4 TB-1</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="inlineStr">
+        <is>
+          <t>I've got an idea and I don't think you're ready for it 💪</t>
+        </is>
+      </c>
+      <c r="C30" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
